--- a/templates/blanks/electricity.xlsx
+++ b/templates/blanks/electricity.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">КВИТАНЦИЯ ОБ ОПЛАТЕ ЭЛЕКТРОЭНЕРГИИ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№1614 за период c 01.05.2022 по 31.05.2022</t>
   </si>
   <si>
     <r>
@@ -34,6 +31,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ТСН Фаворит
 </t>
@@ -43,6 +41,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">обл.Ленинградская, р-н.Всеволожский, г.Сертолово, массив.Белоостров, ТСН.Фаворит, 188650</t>
     </r>
@@ -51,16 +50,16 @@
     <t xml:space="preserve">ТСН Фаворит ИНН 7802551492 КПП 780201001 ОГРН 1157847397256 Юр. адрес: 194358, ,г.Санкт-Петербург, пр. Просвещения, д.32, корп.2, кв.387 Банковские реквизиты: р/с 40703810102890000613 в ПАО АКБ АВАНГАРД,  г. Москва к/с 30101810000000000201 БИК 044525201 </t>
   </si>
   <si>
-    <t xml:space="preserve">Адрес:ТСН Фаворит,линия.11-я д.022</t>
+    <t xml:space="preserve">Адрес:ТСН Фаворит, д.</t>
   </si>
   <si>
-    <t xml:space="preserve">Абонент:Абу Салех Елена Александровна</t>
+    <t xml:space="preserve">Абонент:</t>
   </si>
   <si>
-    <t xml:space="preserve">Показания на 01.05.2022 00:00  кВт.ч</t>
+    <t xml:space="preserve">Показания на</t>
   </si>
   <si>
-    <t xml:space="preserve">Показания на 01.06.2022 00:00  кВт.ч</t>
+    <t xml:space="preserve">Показания на </t>
   </si>
   <si>
     <t xml:space="preserve">Расход за период  кВт*ч</t>
@@ -75,25 +74,7 @@
     <t xml:space="preserve">День</t>
   </si>
   <si>
-    <t xml:space="preserve">7849.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3754.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68</t>
   </si>
   <si>
     <r>
@@ -102,6 +83,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Сумма к оплате:</t>
     </r>
@@ -110,8 +92,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 0.00 Руб.</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
@@ -124,6 +107,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Оплатить следует до:</t>
     </r>
@@ -132,8 +116,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 10.06.2022</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -149,6 +134,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,17 +156,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,10 +355,10 @@
   <dimension ref="A2:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.19"/>
@@ -389,9 +378,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -399,7 +386,7 @@
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -413,7 +400,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -427,7 +414,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -441,7 +428,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -465,68 +452,48 @@
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,7 +503,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -546,12 +513,12 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -578,9 +545,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -588,7 +553,7 @@
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -602,7 +567,7 @@
     </row>
     <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -616,7 +581,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -630,7 +595,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -654,68 +619,48 @@
       <c r="I20" s="6"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="J22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="J23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +670,7 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -735,12 +680,12 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="F26" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
